--- a/Visualization/Pivot_excel.xlsx
+++ b/Visualization/Pivot_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projectDE\GlobalSuperStore_SSAS\Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4225E1CF-2245-40EA-AD05-8F16392DF171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978EE6ED-CB72-4459-99B3-0FCAF70CD616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId2"/>
+    <pivotCache cacheId="18" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -40,18 +40,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>Furniture</t>
-  </si>
-  <si>
-    <t>Office Supplies</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
     <t>2014</t>
   </si>
   <si>
@@ -62,6 +50,18 @@
   </si>
   <si>
     <t>2017</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Home Office</t>
   </si>
 </sst>
 </file>
@@ -831,6 +831,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -862,63 +918,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>tmpCEB6!$A$2:$A$17</c:f>
@@ -964,13 +963,13 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Furniture</c:v>
+                    <c:v>Consumer</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Office Supplies</c:v>
+                    <c:v>Corporate</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Technology</c:v>
+                    <c:v>Home Office</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -983,47 +982,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>53654.681599999996</c:v>
+                  <c:v>1173671.2762599962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58116.035600000112</c:v>
+                  <c:v>1463760.2977399873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84047.198099999951</c:v>
+                  <c:v>1729255.3037799816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89264.814899999634</c:v>
+                  <c:v>2141262.5400799746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86038.779099999883</c:v>
+                  <c:v>691662.64253999782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103322.30620000024</c:v>
+                  <c:v>774459.57201999892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149261.43820000044</c:v>
+                  <c:v>1064973.4235800011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>179973.3044000002</c:v>
+                  <c:v>1293601.8833199891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109247.3508400001</c:v>
+                  <c:v>394116.97674000077</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>145976.93729999982</c:v>
+                  <c:v>439218.82463999966</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>173626.5938799998</c:v>
+                  <c:v>611517.7220199994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>234927.85115999941</c:v>
+                  <c:v>865001.44715999975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B446-40F0-ADA0-E0804E7EB130}"/>
+              <c16:uniqueId val="{00000000-DFA3-4CE2-A73C-2CC3F5F281A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1831,17 +1830,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Varil" refreshedDate="44996.711793865739" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF28000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Varil" refreshedDate="44996.72144814815" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF28000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
-    <cacheField name="[Dim Product].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="8" level="1">
+    <cacheField name="[Measures].[Sales]" caption="Sales" numFmtId="0" hierarchy="21" level="32767"/>
+    <cacheField name="[Dim Customer].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="1" level="1">
       <sharedItems count="3">
-        <s v="[Dim Product].[Category].&amp;[Furniture]" c="Furniture"/>
-        <s v="[Dim Product].[Category].&amp;[Office Supplies]" c="Office Supplies"/>
-        <s v="[Dim Product].[Category].&amp;[Technology]" c="Technology"/>
+        <s v="[Dim Customer].[Segment].&amp;[Consumer]" c="Consumer"/>
+        <s v="[Dim Customer].[Segment].&amp;[Corporate]" c="Corporate"/>
+        <s v="[Dim Customer].[Segment].&amp;[Home Office]" c="Home Office"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Profit]" caption="Profit" numFmtId="0" hierarchy="24" level="32767"/>
     <cacheField name="[Dim Time].[Order Year].[Order Year]" caption="Order Year" numFmtId="0" hierarchy="14" level="1">
       <sharedItems count="4">
         <s v="[Dim Time].[Order Year].&amp;[2014]" c="2014"/>
@@ -1853,19 +1852,19 @@
   </cacheFields>
   <cacheHierarchies count="40">
     <cacheHierarchy uniqueName="[Dim Customer].[Customer ID]" caption="Customer ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Customer].[Customer ID].[All]" allUniqueName="[Dim Customer].[Customer ID].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Dim Customer].[Segment].[All]" allUniqueName="[Dim Customer].[Segment].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Dim Customer].[Segment].[All]" allUniqueName="[Dim Customer].[Segment].[All]" dimensionUniqueName="[Dim Customer]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Dim Locations].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim Locations].[City].[All]" allUniqueName="[Dim Locations].[City].[All]" dimensionUniqueName="[Dim Locations]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Locations].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim Locations].[Country].[All]" allUniqueName="[Dim Locations].[Country].[All]" dimensionUniqueName="[Dim Locations]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Locations].[Location ID]" caption="Location ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Locations].[Location ID].[All]" allUniqueName="[Dim Locations].[Location ID].[All]" dimensionUniqueName="[Dim Locations]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Locations].[Martket]" caption="Martket" attribute="1" defaultMemberUniqueName="[Dim Locations].[Martket].[All]" allUniqueName="[Dim Locations].[Martket].[All]" dimensionUniqueName="[Dim Locations]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Locations].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Dim Locations].[Region].[All]" allUniqueName="[Dim Locations].[Region].[All]" dimensionUniqueName="[Dim Locations]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Locations].[State]" caption="State" attribute="1" defaultMemberUniqueName="[Dim Locations].[State].[All]" allUniqueName="[Dim Locations].[State].[All]" dimensionUniqueName="[Dim Locations]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim Product].[Category].[All]" allUniqueName="[Dim Product].[Category].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim Product].[Category].[All]" allUniqueName="[Dim Product].[Category].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Product ID]" caption="Product ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product ID].[All]" allUniqueName="[Dim Product].[Product ID].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim Product].[Sub Category].[All]" allUniqueName="[Dim Product].[Sub Category].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Time].[Order Day]" caption="Order Day" attribute="1" defaultMemberUniqueName="[Dim Time].[Order Day].[All]" allUniqueName="[Dim Time].[Order Day].[All]" dimensionUniqueName="[Dim Time]" displayFolder="" count="0" unbalanced="0"/>
@@ -1883,14 +1882,14 @@
     <cacheHierarchy uniqueName="[Fact Orders].[Location ID]" caption="Location ID" attribute="1" defaultMemberUniqueName="[Fact Orders].[Location ID].[All]" allUniqueName="[Fact Orders].[Location ID].[All]" dimensionUniqueName="[Fact Orders]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Fact Orders].[Product ID]" caption="Product ID" attribute="1" defaultMemberUniqueName="[Fact Orders].[Product ID].[All]" allUniqueName="[Fact Orders].[Product ID].[All]" dimensionUniqueName="[Fact Orders]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Fact Orders].[Time ID]" caption="Time ID" attribute="1" defaultMemberUniqueName="[Fact Orders].[Time ID].[All]" allUniqueName="[Fact Orders].[Time ID].[All]" dimensionUniqueName="[Fact Orders]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sales]" caption="Sales" measure="1" displayFolder="" measureGroup="Fact Orders" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sales]" caption="Sales" measure="1" displayFolder="" measureGroup="Fact Orders" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Orders" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Discount]" caption="Discount" measure="1" displayFolder="" measureGroup="Fact Orders" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Profit]" caption="Profit" measure="1" displayFolder="" measureGroup="Fact Orders" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Profit]" caption="Profit" measure="1" displayFolder="" measureGroup="Fact Orders" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Shipping Cost]" caption="Shipping Cost" measure="1" displayFolder="" measureGroup="Fact Orders" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Fact Orders Count]" caption="Fact Orders Count" measure="1" displayFolder="" measureGroup="Fact Orders" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Order Year]" caption="Order Year" measure="1" displayFolder="" measureGroup="Dim Time" count="0"/>
@@ -1943,9 +1942,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="3">
         <item x="0"/>
@@ -1953,7 +1953,6 @@
         <item x="2"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="4">
         <item x="0"/>
@@ -1964,7 +1963,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="2">
-    <field x="0"/>
+    <field x="1"/>
     <field x="2"/>
   </rowFields>
   <rowItems count="16">
@@ -2021,10 +2020,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField fld="1" baseField="0" baseItem="0"/>
+    <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2078,7 +2077,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="8"/>
+    <rowHierarchyUsage hierarchyUsage="1"/>
     <rowHierarchyUsage hierarchyUsage="14"/>
   </rowHierarchiesUsage>
   <extLst>
@@ -2392,12 +2391,12 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -2408,121 +2407,121 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>53654.681599999996</v>
+        <v>1173671.2762599962</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>58116.035600000112</v>
+        <v>1463760.2977399873</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>84047.198099999951</v>
+        <v>1729255.3037799816</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>89264.814899999634</v>
+        <v>2141262.5400799746</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3">
-        <v>86038.779099999883</v>
+        <v>691662.64253999782</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>103322.30620000024</v>
+        <v>774459.57201999892</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>149261.43820000044</v>
+        <v>1064973.4235800011</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
-        <v>179973.3044000002</v>
+        <v>1293601.8833199891</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>109247.3508400001</v>
+        <v>394116.97674000077</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3">
-        <v>145976.93729999982</v>
+        <v>439218.82463999966</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>173626.5938799998</v>
+        <v>611517.7220199994</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3">
-        <v>234927.85115999941</v>
+        <v>865001.44715999975</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2530,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3">
-        <v>1467457.291279997</v>
+        <v>12642501.909880104</v>
       </c>
     </row>
   </sheetData>
